--- a/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_EQ组.xlsx
+++ b/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.4.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="90">
   <si>
     <t>No</t>
   </si>
@@ -327,10 +322,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>租客APP</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Fix Bug </t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -344,14 +335,26 @@
   </si>
   <si>
     <t>【BS】增加品牌录入房东视频文件的最大长度</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通告</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -986,15 +989,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7" style="10" customWidth="1"/>
     <col min="2" max="2" width="42.625" style="28" customWidth="1"/>
@@ -1019,7 +1022,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1078,18 +1081,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>20</v>
@@ -1110,17 +1113,25 @@
       <c r="K2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="20"/>
+      <c r="L2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42583</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="23"/>
       <c r="T2" s="24"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1170,7 +1181,7 @@
       <c r="S3" s="23"/>
       <c r="T3" s="24"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1220,7 +1231,7 @@
       <c r="S4" s="23"/>
       <c r="T4" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A5" s="14">
         <v>5</v>
       </c>
@@ -1270,7 +1281,7 @@
       <c r="S5" s="23"/>
       <c r="T5" s="24"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A6" s="14">
         <v>6</v>
       </c>
@@ -1320,7 +1331,7 @@
       <c r="S6" s="23"/>
       <c r="T6" s="24"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="33" hidden="1">
       <c r="A7" s="14">
         <v>7</v>
       </c>
@@ -1370,7 +1381,7 @@
       <c r="S7" s="23"/>
       <c r="T7" s="24"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A8" s="14">
         <v>8</v>
       </c>
@@ -1420,7 +1431,7 @@
       <c r="S8" s="23"/>
       <c r="T8" s="24"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A9" s="14">
         <v>9</v>
       </c>
@@ -1470,7 +1481,7 @@
       <c r="S9" s="23"/>
       <c r="T9" s="24"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A10" s="14">
         <v>10</v>
       </c>
@@ -1520,7 +1531,7 @@
       <c r="S10" s="23"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A11" s="14">
         <v>11</v>
       </c>
@@ -1570,7 +1581,7 @@
       <c r="S11" s="23"/>
       <c r="T11" s="24"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A12" s="14">
         <v>12</v>
       </c>
@@ -1620,7 +1631,7 @@
       <c r="S12" s="23"/>
       <c r="T12" s="24"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A13" s="14">
         <v>13</v>
       </c>
@@ -1670,7 +1681,7 @@
       <c r="S13" s="23"/>
       <c r="T13" s="24"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A14" s="14">
         <v>14</v>
       </c>
@@ -1720,7 +1731,7 @@
       <c r="S14" s="23"/>
       <c r="T14" s="24"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A15" s="14">
         <v>15</v>
       </c>
@@ -1770,7 +1781,7 @@
       <c r="S15" s="23"/>
       <c r="T15" s="24"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A16" s="14">
         <v>17</v>
       </c>
@@ -1820,7 +1831,7 @@
       <c r="S16" s="23"/>
       <c r="T16" s="24"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A17" s="14">
         <v>18</v>
       </c>
@@ -1870,7 +1881,7 @@
       <c r="S17" s="23"/>
       <c r="T17" s="24"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A18" s="14">
         <v>19</v>
       </c>
@@ -1920,7 +1931,7 @@
       <c r="S18" s="23"/>
       <c r="T18" s="24"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A19" s="14">
         <v>20</v>
       </c>
@@ -1970,7 +1981,7 @@
       <c r="S19" s="23"/>
       <c r="T19" s="24"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="33" hidden="1">
       <c r="A20" s="14">
         <v>21</v>
       </c>
@@ -2020,7 +2031,7 @@
       <c r="S20" s="23"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A21" s="14">
         <v>23</v>
       </c>
@@ -2070,7 +2081,7 @@
       <c r="S21" s="23"/>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A22" s="14">
         <v>24</v>
       </c>
@@ -2120,7 +2131,7 @@
       <c r="S22" s="23"/>
       <c r="T22" s="24"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A23" s="14">
         <v>29</v>
       </c>
@@ -2170,7 +2181,7 @@
       <c r="S23" s="23"/>
       <c r="T23" s="24"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A24" s="14">
         <v>35</v>
       </c>
@@ -2220,15 +2231,15 @@
       <c r="S24" s="23"/>
       <c r="T24" s="24"/>
     </row>
-    <row r="25" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" ht="16.5" customHeight="1">
       <c r="A25" s="29">
         <v>2</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>63</v>
@@ -2252,21 +2263,29 @@
       <c r="K25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="20"/>
+      <c r="L25" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="16">
+        <v>42583</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" ht="16.5">
       <c r="A26" s="29">
         <v>3</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>19</v>
@@ -2293,17 +2312,27 @@
       <c r="K26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="20"/>
+      <c r="L26" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" s="16">
+        <v>42583</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="18"/>
     </row>
-    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
+    <row r="27" spans="1:20" ht="16.5">
+      <c r="A27" s="17">
+        <v>4</v>
+      </c>
       <c r="B27" s="27"/>
       <c r="C27" s="17"/>
       <c r="D27" s="15"/>
@@ -2323,7 +2352,7 @@
       <c r="R27" s="17"/>
       <c r="S27" s="18"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" ht="16.5">
       <c r="A28" s="17"/>
       <c r="B28" s="27"/>
       <c r="C28" s="17"/>
@@ -2344,7 +2373,7 @@
       <c r="R28" s="17"/>
       <c r="S28" s="18"/>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" ht="16.5">
       <c r="A29" s="17"/>
       <c r="B29" s="27"/>
       <c r="C29" s="17"/>
@@ -2365,7 +2394,7 @@
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" ht="16.5">
       <c r="A30" s="17"/>
       <c r="B30" s="27"/>
       <c r="C30" s="17"/>
@@ -2386,7 +2415,7 @@
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" ht="16.5">
       <c r="A31" s="17"/>
       <c r="B31" s="27"/>
       <c r="C31" s="17"/>
@@ -2407,7 +2436,7 @@
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" ht="16.5">
       <c r="A32" s="17"/>
       <c r="B32" s="27"/>
       <c r="C32" s="17"/>
@@ -2428,7 +2457,7 @@
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="17"/>
       <c r="B33" s="27"/>
       <c r="C33" s="17"/>
@@ -2449,7 +2478,7 @@
       <c r="R33" s="17"/>
       <c r="S33" s="18"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="17"/>
       <c r="B34" s="27"/>
       <c r="C34" s="17"/>
@@ -2470,7 +2499,7 @@
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="17"/>
       <c r="B35" s="27"/>
       <c r="C35" s="17"/>
@@ -2491,7 +2520,7 @@
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="17"/>
       <c r="B36" s="27"/>
       <c r="C36" s="17"/>
@@ -2512,7 +2541,7 @@
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="17"/>
       <c r="B37" s="27"/>
       <c r="C37" s="17"/>
@@ -2533,7 +2562,7 @@
       <c r="R37" s="17"/>
       <c r="S37" s="18"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="17"/>
       <c r="B38" s="27"/>
       <c r="C38" s="17"/>
@@ -2554,7 +2583,7 @@
       <c r="R38" s="17"/>
       <c r="S38" s="18"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="17"/>
       <c r="B39" s="27"/>
       <c r="C39" s="17"/>
@@ -2575,7 +2604,7 @@
       <c r="R39" s="17"/>
       <c r="S39" s="18"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="17"/>
       <c r="B40" s="27"/>
       <c r="C40" s="17"/>
@@ -2596,7 +2625,7 @@
       <c r="R40" s="17"/>
       <c r="S40" s="18"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="17"/>
       <c r="B41" s="27"/>
       <c r="C41" s="17"/>
@@ -2617,7 +2646,7 @@
       <c r="R41" s="17"/>
       <c r="S41" s="18"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="17"/>
       <c r="B42" s="27"/>
       <c r="C42" s="17"/>
@@ -2638,7 +2667,7 @@
       <c r="R42" s="17"/>
       <c r="S42" s="18"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="17"/>
       <c r="B43" s="27"/>
       <c r="C43" s="17"/>
@@ -2659,7 +2688,7 @@
       <c r="R43" s="17"/>
       <c r="S43" s="18"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="17"/>
       <c r="B44" s="27"/>
       <c r="C44" s="17"/>
@@ -2680,7 +2709,7 @@
       <c r="R44" s="17"/>
       <c r="S44" s="18"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="17"/>
       <c r="B45" s="27"/>
       <c r="C45" s="17"/>
@@ -2701,7 +2730,7 @@
       <c r="R45" s="17"/>
       <c r="S45" s="18"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="17"/>
       <c r="B46" s="27"/>
       <c r="C46" s="17"/>
@@ -2722,7 +2751,7 @@
       <c r="R46" s="17"/>
       <c r="S46" s="18"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="17"/>
       <c r="B47" s="27"/>
       <c r="C47" s="17"/>
@@ -2743,7 +2772,7 @@
       <c r="R47" s="17"/>
       <c r="S47" s="18"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="17"/>
       <c r="B48" s="27"/>
       <c r="C48" s="17"/>
@@ -2764,7 +2793,7 @@
       <c r="R48" s="17"/>
       <c r="S48" s="18"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="17"/>
       <c r="B49" s="27"/>
       <c r="C49" s="17"/>
@@ -2785,7 +2814,7 @@
       <c r="R49" s="17"/>
       <c r="S49" s="18"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="17"/>
       <c r="B50" s="27"/>
       <c r="C50" s="17"/>
@@ -2806,7 +2835,7 @@
       <c r="R50" s="17"/>
       <c r="S50" s="18"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="17"/>
       <c r="B51" s="27"/>
       <c r="C51" s="17"/>
@@ -2827,7 +2856,7 @@
       <c r="R51" s="17"/>
       <c r="S51" s="18"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="17"/>
       <c r="B52" s="27"/>
       <c r="C52" s="17"/>
@@ -2848,7 +2877,7 @@
       <c r="R52" s="17"/>
       <c r="S52" s="18"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="17"/>
       <c r="B53" s="27"/>
       <c r="C53" s="17"/>
@@ -2869,7 +2898,7 @@
       <c r="R53" s="17"/>
       <c r="S53" s="18"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="17"/>
       <c r="B54" s="27"/>
       <c r="C54" s="17"/>
@@ -2890,7 +2919,7 @@
       <c r="R54" s="17"/>
       <c r="S54" s="18"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="17"/>
       <c r="B55" s="27"/>
       <c r="C55" s="17"/>
@@ -2911,7 +2940,7 @@
       <c r="R55" s="17"/>
       <c r="S55" s="18"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="17"/>
       <c r="B56" s="27"/>
       <c r="C56" s="17"/>
@@ -2932,7 +2961,7 @@
       <c r="R56" s="17"/>
       <c r="S56" s="18"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="17"/>
       <c r="B57" s="27"/>
       <c r="C57" s="17"/>
@@ -2953,7 +2982,7 @@
       <c r="R57" s="17"/>
       <c r="S57" s="18"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="17"/>
       <c r="B58" s="27"/>
       <c r="C58" s="17"/>
@@ -2974,7 +3003,7 @@
       <c r="R58" s="17"/>
       <c r="S58" s="18"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="17"/>
       <c r="B59" s="27"/>
       <c r="C59" s="17"/>
@@ -2995,7 +3024,7 @@
       <c r="R59" s="17"/>
       <c r="S59" s="18"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="17"/>
       <c r="B60" s="27"/>
       <c r="C60" s="17"/>
@@ -3016,7 +3045,7 @@
       <c r="R60" s="17"/>
       <c r="S60" s="18"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="17"/>
       <c r="B61" s="27"/>
       <c r="C61" s="17"/>
@@ -3037,7 +3066,7 @@
       <c r="R61" s="17"/>
       <c r="S61" s="18"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="17"/>
       <c r="B62" s="27"/>
       <c r="C62" s="17"/>
@@ -3058,7 +3087,7 @@
       <c r="R62" s="17"/>
       <c r="S62" s="18"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="17"/>
       <c r="B63" s="27"/>
       <c r="C63" s="17"/>
@@ -3079,7 +3108,7 @@
       <c r="R63" s="17"/>
       <c r="S63" s="18"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="17"/>
       <c r="B64" s="27"/>
       <c r="C64" s="17"/>
@@ -3100,7 +3129,7 @@
       <c r="R64" s="17"/>
       <c r="S64" s="18"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="17"/>
       <c r="B65" s="27"/>
       <c r="C65" s="17"/>
@@ -3121,7 +3150,7 @@
       <c r="R65" s="17"/>
       <c r="S65" s="18"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="17"/>
       <c r="B66" s="27"/>
       <c r="C66" s="17"/>
@@ -3142,7 +3171,7 @@
       <c r="R66" s="17"/>
       <c r="S66" s="18"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="17"/>
       <c r="B67" s="27"/>
       <c r="C67" s="17"/>
@@ -3163,7 +3192,7 @@
       <c r="R67" s="17"/>
       <c r="S67" s="18"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="17"/>
       <c r="B68" s="27"/>
       <c r="C68" s="17"/>
@@ -3184,7 +3213,7 @@
       <c r="R68" s="17"/>
       <c r="S68" s="18"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="17"/>
       <c r="B69" s="27"/>
       <c r="C69" s="17"/>
@@ -3205,7 +3234,7 @@
       <c r="R69" s="17"/>
       <c r="S69" s="18"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="17"/>
       <c r="B70" s="27"/>
       <c r="C70" s="17"/>
@@ -3226,7 +3255,7 @@
       <c r="R70" s="17"/>
       <c r="S70" s="18"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="17"/>
       <c r="B71" s="27"/>
       <c r="C71" s="17"/>
@@ -3247,7 +3276,7 @@
       <c r="R71" s="17"/>
       <c r="S71" s="18"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="17"/>
       <c r="B72" s="27"/>
       <c r="C72" s="17"/>
@@ -3268,7 +3297,7 @@
       <c r="R72" s="17"/>
       <c r="S72" s="18"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="17"/>
       <c r="B73" s="27"/>
       <c r="C73" s="17"/>
@@ -3289,7 +3318,7 @@
       <c r="R73" s="17"/>
       <c r="S73" s="18"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="17"/>
       <c r="B74" s="27"/>
       <c r="C74" s="17"/>
@@ -3310,7 +3339,7 @@
       <c r="R74" s="17"/>
       <c r="S74" s="18"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="17"/>
       <c r="B75" s="27"/>
       <c r="C75" s="17"/>
@@ -3331,7 +3360,7 @@
       <c r="R75" s="17"/>
       <c r="S75" s="18"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="17"/>
       <c r="B76" s="27"/>
       <c r="C76" s="17"/>
@@ -3352,7 +3381,7 @@
       <c r="R76" s="17"/>
       <c r="S76" s="18"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="17"/>
       <c r="B77" s="27"/>
       <c r="C77" s="17"/>
@@ -3373,7 +3402,7 @@
       <c r="R77" s="17"/>
       <c r="S77" s="18"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19">
       <c r="A78" s="17"/>
       <c r="B78" s="27"/>
       <c r="C78" s="17"/>
@@ -3394,7 +3423,7 @@
       <c r="R78" s="17"/>
       <c r="S78" s="18"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19">
       <c r="A79" s="17"/>
       <c r="B79" s="27"/>
       <c r="C79" s="17"/>
@@ -3415,7 +3444,7 @@
       <c r="R79" s="17"/>
       <c r="S79" s="18"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19">
       <c r="A80" s="17"/>
       <c r="B80" s="27"/>
       <c r="C80" s="17"/>
@@ -3436,7 +3465,7 @@
       <c r="R80" s="17"/>
       <c r="S80" s="18"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19">
       <c r="A81" s="17"/>
       <c r="B81" s="27"/>
       <c r="C81" s="17"/>
@@ -3457,7 +3486,7 @@
       <c r="R81" s="17"/>
       <c r="S81" s="18"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19">
       <c r="A82" s="17"/>
       <c r="B82" s="27"/>
       <c r="C82" s="17"/>
@@ -3478,7 +3507,7 @@
       <c r="R82" s="17"/>
       <c r="S82" s="18"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19">
       <c r="A83" s="17"/>
       <c r="B83" s="27"/>
       <c r="C83" s="17"/>
@@ -3499,7 +3528,7 @@
       <c r="R83" s="17"/>
       <c r="S83" s="18"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19">
       <c r="A84" s="17"/>
       <c r="B84" s="27"/>
       <c r="C84" s="17"/>
@@ -3520,7 +3549,7 @@
       <c r="R84" s="17"/>
       <c r="S84" s="18"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19">
       <c r="A85" s="17"/>
       <c r="B85" s="27"/>
       <c r="C85" s="17"/>
@@ -3541,7 +3570,7 @@
       <c r="R85" s="17"/>
       <c r="S85" s="18"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19">
       <c r="A86" s="17"/>
       <c r="B86" s="27"/>
       <c r="C86" s="17"/>
@@ -3562,7 +3591,7 @@
       <c r="R86" s="17"/>
       <c r="S86" s="18"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19">
       <c r="A87" s="17"/>
       <c r="B87" s="27"/>
       <c r="C87" s="17"/>
@@ -3583,7 +3612,7 @@
       <c r="R87" s="17"/>
       <c r="S87" s="18"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19">
       <c r="A88" s="17"/>
       <c r="B88" s="27"/>
       <c r="C88" s="17"/>
@@ -3604,7 +3633,7 @@
       <c r="R88" s="17"/>
       <c r="S88" s="18"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="17"/>
       <c r="B89" s="27"/>
       <c r="C89" s="17"/>
@@ -3625,7 +3654,7 @@
       <c r="R89" s="17"/>
       <c r="S89" s="18"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="17"/>
       <c r="B90" s="27"/>
       <c r="C90" s="17"/>
@@ -3646,7 +3675,7 @@
       <c r="R90" s="17"/>
       <c r="S90" s="18"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="17"/>
       <c r="B91" s="27"/>
       <c r="C91" s="17"/>
@@ -3667,7 +3696,7 @@
       <c r="R91" s="17"/>
       <c r="S91" s="18"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="17"/>
       <c r="B92" s="27"/>
       <c r="C92" s="17"/>
@@ -3688,7 +3717,7 @@
       <c r="R92" s="17"/>
       <c r="S92" s="18"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="17"/>
       <c r="B93" s="27"/>
       <c r="C93" s="17"/>
@@ -3709,7 +3738,7 @@
       <c r="R93" s="17"/>
       <c r="S93" s="18"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="17"/>
       <c r="B94" s="27"/>
       <c r="C94" s="17"/>
@@ -3730,7 +3759,7 @@
       <c r="R94" s="17"/>
       <c r="S94" s="18"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="17"/>
       <c r="B95" s="27"/>
       <c r="C95" s="17"/>
@@ -3751,7 +3780,7 @@
       <c r="R95" s="17"/>
       <c r="S95" s="18"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="17"/>
       <c r="B96" s="27"/>
       <c r="C96" s="17"/>
@@ -3772,7 +3801,7 @@
       <c r="R96" s="17"/>
       <c r="S96" s="18"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="17"/>
       <c r="B97" s="27"/>
       <c r="C97" s="17"/>
@@ -3793,7 +3822,7 @@
       <c r="R97" s="17"/>
       <c r="S97" s="18"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="17"/>
       <c r="B98" s="27"/>
       <c r="C98" s="17"/>
@@ -3814,7 +3843,7 @@
       <c r="R98" s="17"/>
       <c r="S98" s="18"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="17"/>
       <c r="B99" s="27"/>
       <c r="C99" s="17"/>
@@ -3835,7 +3864,7 @@
       <c r="R99" s="17"/>
       <c r="S99" s="18"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="17"/>
       <c r="B100" s="27"/>
       <c r="C100" s="17"/>
@@ -3856,7 +3885,7 @@
       <c r="R100" s="17"/>
       <c r="S100" s="18"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="17"/>
       <c r="B101" s="27"/>
       <c r="C101" s="17"/>
@@ -3877,7 +3906,7 @@
       <c r="R101" s="17"/>
       <c r="S101" s="18"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="17"/>
       <c r="B102" s="27"/>
       <c r="C102" s="17"/>
@@ -3898,7 +3927,7 @@
       <c r="R102" s="17"/>
       <c r="S102" s="18"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="17"/>
       <c r="B103" s="27"/>
       <c r="C103" s="17"/>
@@ -3919,7 +3948,7 @@
       <c r="R103" s="17"/>
       <c r="S103" s="18"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="17"/>
       <c r="B104" s="27"/>
       <c r="C104" s="17"/>
@@ -3940,7 +3969,7 @@
       <c r="R104" s="17"/>
       <c r="S104" s="18"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="17"/>
       <c r="B105" s="27"/>
       <c r="C105" s="17"/>
@@ -3961,7 +3990,7 @@
       <c r="R105" s="17"/>
       <c r="S105" s="18"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="17"/>
       <c r="B106" s="27"/>
       <c r="C106" s="17"/>
@@ -3982,7 +4011,7 @@
       <c r="R106" s="17"/>
       <c r="S106" s="18"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="17"/>
       <c r="B107" s="27"/>
       <c r="C107" s="17"/>
@@ -4003,7 +4032,7 @@
       <c r="R107" s="17"/>
       <c r="S107" s="18"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="17"/>
       <c r="B108" s="27"/>
       <c r="C108" s="17"/>
@@ -4024,7 +4053,7 @@
       <c r="R108" s="17"/>
       <c r="S108" s="18"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="17"/>
       <c r="B109" s="27"/>
       <c r="C109" s="17"/>
@@ -4045,7 +4074,7 @@
       <c r="R109" s="17"/>
       <c r="S109" s="18"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="17"/>
       <c r="B110" s="27"/>
       <c r="C110" s="17"/>
@@ -4066,7 +4095,7 @@
       <c r="R110" s="17"/>
       <c r="S110" s="18"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="17"/>
       <c r="B111" s="27"/>
       <c r="C111" s="17"/>
@@ -4087,7 +4116,7 @@
       <c r="R111" s="17"/>
       <c r="S111" s="18"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="17"/>
       <c r="B112" s="27"/>
       <c r="C112" s="17"/>
@@ -4108,7 +4137,7 @@
       <c r="R112" s="17"/>
       <c r="S112" s="18"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="17"/>
       <c r="B113" s="27"/>
       <c r="C113" s="17"/>
@@ -4129,7 +4158,7 @@
       <c r="R113" s="17"/>
       <c r="S113" s="18"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="17"/>
       <c r="B114" s="27"/>
       <c r="C114" s="17"/>
@@ -4150,7 +4179,7 @@
       <c r="R114" s="17"/>
       <c r="S114" s="18"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="17"/>
       <c r="B115" s="27"/>
       <c r="C115" s="17"/>
@@ -4171,7 +4200,7 @@
       <c r="R115" s="17"/>
       <c r="S115" s="18"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="17"/>
       <c r="B116" s="27"/>
       <c r="C116" s="17"/>
@@ -4192,7 +4221,7 @@
       <c r="R116" s="17"/>
       <c r="S116" s="18"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="17"/>
       <c r="B117" s="27"/>
       <c r="C117" s="17"/>
@@ -4213,7 +4242,7 @@
       <c r="R117" s="17"/>
       <c r="S117" s="18"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="17"/>
       <c r="B118" s="27"/>
       <c r="C118" s="17"/>
@@ -4234,7 +4263,7 @@
       <c r="R118" s="17"/>
       <c r="S118" s="18"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="17"/>
       <c r="B119" s="27"/>
       <c r="C119" s="17"/>
@@ -4255,7 +4284,7 @@
       <c r="R119" s="17"/>
       <c r="S119" s="18"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="17"/>
       <c r="B120" s="27"/>
       <c r="C120" s="17"/>
@@ -4276,7 +4305,7 @@
       <c r="R120" s="17"/>
       <c r="S120" s="18"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="17"/>
       <c r="B121" s="27"/>
       <c r="C121" s="17"/>
@@ -4297,7 +4326,7 @@
       <c r="R121" s="17"/>
       <c r="S121" s="18"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="17"/>
       <c r="B122" s="27"/>
       <c r="C122" s="17"/>
@@ -4318,7 +4347,7 @@
       <c r="R122" s="17"/>
       <c r="S122" s="18"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="17"/>
       <c r="B123" s="27"/>
       <c r="C123" s="17"/>
@@ -4339,7 +4368,7 @@
       <c r="R123" s="17"/>
       <c r="S123" s="18"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="17"/>
       <c r="B124" s="27"/>
       <c r="C124" s="17"/>
@@ -4360,7 +4389,7 @@
       <c r="R124" s="17"/>
       <c r="S124" s="18"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="17"/>
       <c r="B125" s="27"/>
       <c r="C125" s="17"/>
@@ -4381,7 +4410,7 @@
       <c r="R125" s="17"/>
       <c r="S125" s="18"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="17"/>
       <c r="B126" s="27"/>
       <c r="C126" s="17"/>
@@ -4402,7 +4431,7 @@
       <c r="R126" s="17"/>
       <c r="S126" s="18"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="17"/>
       <c r="B127" s="27"/>
       <c r="C127" s="17"/>
@@ -4423,7 +4452,7 @@
       <c r="R127" s="17"/>
       <c r="S127" s="18"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="17"/>
       <c r="B128" s="27"/>
       <c r="C128" s="17"/>
@@ -4444,7 +4473,7 @@
       <c r="R128" s="17"/>
       <c r="S128" s="18"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="17"/>
       <c r="B129" s="27"/>
       <c r="C129" s="17"/>
@@ -4465,7 +4494,7 @@
       <c r="R129" s="17"/>
       <c r="S129" s="18"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="17"/>
       <c r="B130" s="27"/>
       <c r="C130" s="17"/>
@@ -4486,7 +4515,7 @@
       <c r="R130" s="17"/>
       <c r="S130" s="18"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="17"/>
       <c r="B131" s="27"/>
       <c r="C131" s="17"/>
@@ -4507,7 +4536,7 @@
       <c r="R131" s="17"/>
       <c r="S131" s="18"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="17"/>
       <c r="B132" s="27"/>
       <c r="C132" s="17"/>
@@ -4528,7 +4557,7 @@
       <c r="R132" s="17"/>
       <c r="S132" s="18"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="17"/>
       <c r="B133" s="27"/>
       <c r="C133" s="17"/>
@@ -4549,7 +4578,7 @@
       <c r="R133" s="17"/>
       <c r="S133" s="18"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="17"/>
       <c r="B134" s="27"/>
       <c r="C134" s="17"/>
@@ -4570,7 +4599,7 @@
       <c r="R134" s="17"/>
       <c r="S134" s="18"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="17"/>
       <c r="B135" s="27"/>
       <c r="C135" s="17"/>
@@ -4591,7 +4620,7 @@
       <c r="R135" s="17"/>
       <c r="S135" s="18"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="17"/>
       <c r="B136" s="27"/>
       <c r="C136" s="17"/>
@@ -4612,7 +4641,7 @@
       <c r="R136" s="17"/>
       <c r="S136" s="18"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="17"/>
       <c r="B137" s="27"/>
       <c r="C137" s="17"/>
@@ -4633,7 +4662,7 @@
       <c r="R137" s="17"/>
       <c r="S137" s="18"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="17"/>
       <c r="B138" s="27"/>
       <c r="C138" s="17"/>
@@ -4651,7 +4680,7 @@
       <c r="O138" s="18"/>
       <c r="S138" s="18"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="17"/>
       <c r="B139" s="27"/>
       <c r="C139" s="17"/>
@@ -4669,7 +4698,7 @@
       <c r="O139" s="18"/>
       <c r="S139" s="18"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="17"/>
       <c r="B140" s="27"/>
       <c r="C140" s="17"/>
@@ -4687,7 +4716,7 @@
       <c r="O140" s="18"/>
       <c r="S140" s="18"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="17"/>
       <c r="B141" s="27"/>
       <c r="C141" s="17"/>
@@ -4705,7 +4734,7 @@
       <c r="O141" s="18"/>
       <c r="S141" s="18"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="17"/>
       <c r="B142" s="27"/>
       <c r="C142" s="17"/>
@@ -4723,7 +4752,7 @@
       <c r="O142" s="18"/>
       <c r="S142" s="18"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="17"/>
       <c r="B143" s="27"/>
       <c r="C143" s="17"/>
@@ -4741,7 +4770,7 @@
       <c r="O143" s="18"/>
       <c r="S143" s="18"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="17"/>
       <c r="B144" s="27"/>
       <c r="C144" s="17"/>
@@ -4759,7 +4788,7 @@
       <c r="O144" s="18"/>
       <c r="S144" s="18"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="17"/>
       <c r="B145" s="27"/>
       <c r="C145" s="17"/>
@@ -4777,7 +4806,7 @@
       <c r="O145" s="18"/>
       <c r="S145" s="18"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="17"/>
       <c r="B146" s="27"/>
       <c r="C146" s="17"/>
@@ -4795,7 +4824,7 @@
       <c r="O146" s="18"/>
       <c r="S146" s="18"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="17"/>
       <c r="B147" s="27"/>
       <c r="C147" s="17"/>
@@ -4813,7 +4842,7 @@
       <c r="O147" s="18"/>
       <c r="S147" s="18"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="17"/>
       <c r="B148" s="27"/>
       <c r="C148" s="17"/>
@@ -4831,7 +4860,7 @@
       <c r="O148" s="18"/>
       <c r="S148" s="18"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="17"/>
       <c r="B149" s="27"/>
       <c r="C149" s="17"/>
@@ -4849,7 +4878,7 @@
       <c r="O149" s="18"/>
       <c r="S149" s="18"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="17"/>
       <c r="B150" s="27"/>
       <c r="C150" s="17"/>
@@ -4867,7 +4896,7 @@
       <c r="O150" s="18"/>
       <c r="S150" s="18"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="17"/>
       <c r="B151" s="27"/>
       <c r="C151" s="17"/>
@@ -4885,7 +4914,7 @@
       <c r="O151" s="18"/>
       <c r="S151" s="18"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="17"/>
       <c r="B152" s="27"/>
       <c r="C152" s="17"/>
@@ -4903,7 +4932,7 @@
       <c r="O152" s="18"/>
       <c r="S152" s="18"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="17"/>
       <c r="B153" s="27"/>
       <c r="C153" s="17"/>
@@ -4921,7 +4950,7 @@
       <c r="O153" s="18"/>
       <c r="S153" s="18"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="17"/>
       <c r="B154" s="27"/>
       <c r="C154" s="17"/>
@@ -4939,7 +4968,7 @@
       <c r="O154" s="18"/>
       <c r="S154" s="18"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="17"/>
       <c r="B155" s="27"/>
       <c r="C155" s="17"/>
@@ -4957,7 +4986,7 @@
       <c r="O155" s="18"/>
       <c r="S155" s="18"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="17"/>
       <c r="B156" s="27"/>
       <c r="C156" s="17"/>
@@ -4975,7 +5004,7 @@
       <c r="O156" s="18"/>
       <c r="S156" s="18"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="17"/>
       <c r="B157" s="27"/>
       <c r="C157" s="17"/>
@@ -4993,7 +5022,7 @@
       <c r="O157" s="18"/>
       <c r="S157" s="18"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="17"/>
       <c r="B158" s="27"/>
       <c r="C158" s="17"/>
@@ -5011,7 +5040,7 @@
       <c r="O158" s="18"/>
       <c r="S158" s="18"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="17"/>
       <c r="B159" s="27"/>
       <c r="C159" s="17"/>
@@ -5029,7 +5058,7 @@
       <c r="O159" s="18"/>
       <c r="S159" s="18"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="17"/>
       <c r="B160" s="27"/>
       <c r="C160" s="17"/>
@@ -5047,7 +5076,7 @@
       <c r="O160" s="18"/>
       <c r="S160" s="18"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="17"/>
       <c r="B161" s="27"/>
       <c r="C161" s="17"/>
@@ -5065,7 +5094,7 @@
       <c r="O161" s="18"/>
       <c r="S161" s="18"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="17"/>
       <c r="B162" s="27"/>
       <c r="C162" s="17"/>
@@ -5083,7 +5112,7 @@
       <c r="O162" s="18"/>
       <c r="S162" s="18"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="17"/>
       <c r="B163" s="27"/>
       <c r="C163" s="17"/>
@@ -5101,7 +5130,7 @@
       <c r="O163" s="18"/>
       <c r="S163" s="18"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="17"/>
       <c r="B164" s="27"/>
       <c r="C164" s="17"/>
@@ -5119,7 +5148,7 @@
       <c r="O164" s="18"/>
       <c r="S164" s="18"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="17"/>
       <c r="B165" s="27"/>
       <c r="C165" s="17"/>
@@ -5137,7 +5166,7 @@
       <c r="O165" s="18"/>
       <c r="S165" s="18"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="17"/>
       <c r="B166" s="27"/>
       <c r="C166" s="17"/>
@@ -5155,7 +5184,7 @@
       <c r="O166" s="18"/>
       <c r="S166" s="18"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="17"/>
       <c r="B167" s="27"/>
       <c r="C167" s="17"/>
@@ -5173,7 +5202,7 @@
       <c r="O167" s="18"/>
       <c r="S167" s="18"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="17"/>
       <c r="B168" s="27"/>
       <c r="C168" s="17"/>
@@ -5191,7 +5220,7 @@
       <c r="O168" s="18"/>
       <c r="S168" s="18"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="17"/>
       <c r="B169" s="27"/>
       <c r="C169" s="17"/>
@@ -5209,7 +5238,7 @@
       <c r="O169" s="18"/>
       <c r="S169" s="18"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="17"/>
       <c r="B170" s="27"/>
       <c r="C170" s="17"/>
@@ -5227,7 +5256,7 @@
       <c r="O170" s="18"/>
       <c r="S170" s="18"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="17"/>
       <c r="B171" s="27"/>
       <c r="C171" s="17"/>
@@ -5245,7 +5274,7 @@
       <c r="O171" s="18"/>
       <c r="S171" s="18"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="17"/>
       <c r="B172" s="27"/>
       <c r="C172" s="17"/>
@@ -5278,14 +5307,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5296,7 +5325,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -5322,7 +5351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5332,7 +5361,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5342,7 +5371,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5352,7 +5381,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5362,7 +5391,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5372,7 +5401,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5382,7 +5411,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5392,7 +5421,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5402,7 +5431,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5412,7 +5441,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5422,7 +5451,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5432,7 +5461,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5442,7 +5471,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5452,7 +5481,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5462,7 +5491,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5472,7 +5501,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5482,7 +5511,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5492,7 +5521,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_EQ组.xlsx
+++ b/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_EQ组.xlsx
@@ -342,11 +342,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>通告</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -994,7 +994,7 @@
   <dimension ref="A1:T172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1117,13 +1117,13 @@
         <v>87</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N2" s="16">
         <v>42583</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -2267,13 +2267,13 @@
         <v>87</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N25" s="16">
         <v>42583</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
@@ -2316,13 +2316,13 @@
         <v>87</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N26" s="16">
         <v>42583</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
